--- a/account.xlsx
+++ b/account.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\StarRailTools\March7thAssistantExtender_user\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MaoSan\March7thAssistantExtender\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C09C417-7E8E-493A-ABB0-B3AF4C6C7339}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53A42F4B-79C3-4DF8-9AF8-690142BCEB5B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2655" yWindow="4980" windowWidth="28800" windowHeight="15885" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3795" yWindow="2310" windowWidth="28800" windowHeight="15885" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -402,7 +402,7 @@
   <dimension ref="A1:C1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1:D1048576"/>
+      <selection activeCell="G26" sqref="G26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
